--- a/Django/project2/dictionary/exel_db/data.xlsx
+++ b/Django/project2/dictionary/exel_db/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>word1</t>
   </si>
@@ -28,10 +28,28 @@
     <t>by</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
     <t>привет</t>
   </si>
   <si>
     <t>пока</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>father</t>
   </si>
 </sst>
 </file>
@@ -389,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,23 +434,31 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
